--- a/medicine/Psychotrope/Chai_(thé)/Chai_(thé).xlsx
+++ b/medicine/Psychotrope/Chai_(thé)/Chai_(thé).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chai_(th%C3%A9)</t>
+          <t>Chai_(thé)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chai (en hindi : चाय, /t͡ʃɑːj/) est le terme hindi employé dans le sous-continent indien pour désigner le thé. La forme la plus courante est le masala chaï (मसाला चाय), un thé noir très sucré mélangé avec du masala (un mélange d'épices) dans du lait bouillant dans une casserole.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chai_(th%C3%A9)</t>
+          <t>Chai_(thé)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans de nombreuses langues d'Europe et d'Asie, « chai » ou « cha » est le mot signifiant « thé ». Ce mot trouve son origine dans le persan : چای  (chay), lui-même venant du mandarin 茶, chá. 
 On trouve parfois en français l'appellation « thé chai » pour désigner le thé consommé avec du lait et des épices : il s'agit d'une appellation tautologique puisque le mot hindi « chai » signifie lui-même déjà « thé ».
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chai_(th%C3%A9)</t>
+          <t>Chai_(thé)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Ingrédients et préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de recette fixe. Le thé est souvent un thé noir fort, comme de l'Assam, afin que les épices et le sucre n'en altèrent pas trop le goût. Le type de thé appelé mamri est traité de manière particulière de sorte qu'il se présente sous forme de granules plutôt que de feuilles. Au Cachemire, on utilise également du gunpowder.
 Le chai est souvent servi sucré voire très sucré, ce qui a pour effet de rehausser le goût de certaines épices.
